--- a/GovernanceRules/rbrgBom/resources/Domains.xlsx
+++ b/GovernanceRules/rbrgBom/resources/Domains.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="671" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="671" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Integer" sheetId="21" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="100">
   <si>
     <t xml:space="preserve">Values </t>
   </si>
@@ -288,6 +288,42 @@
   </si>
   <si>
     <t>oldProperty</t>
+  </si>
+  <si>
+    <t>triggerBuild</t>
+  </si>
+  <si>
+    <t>buildPath</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>deploymentName</t>
+  </si>
+  <si>
+    <t>sourceRuleProject</t>
+  </si>
+  <si>
+    <t>sourceBranch</t>
+  </si>
+  <si>
+    <t>migrationFlag</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>versionComment</t>
+  </si>
+  <si>
+    <t>authors</t>
+  </si>
+  <si>
+    <t>approvers</t>
+  </si>
+  <si>
+    <t>updateType</t>
   </si>
 </sst>
 </file>
@@ -678,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:IV2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,6 +756,23 @@
       <c r="D2" t="str">
         <f>A2</f>
         <v>logicalOperatorCount</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="str">
+        <f>CONCATENATE("return """,A3, """;")</f>
+        <v>return "migrationFlag";</v>
+      </c>
+      <c r="C3" t="str">
+        <f>A3</f>
+        <v>migrationFlag</v>
+      </c>
+      <c r="D3" t="str">
+        <f>A3</f>
+        <v>migrationFlag</v>
       </c>
     </row>
   </sheetData>
@@ -1022,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,15 +1107,15 @@
         <v>17</v>
       </c>
       <c r="B2" s="4" t="str">
-        <f t="shared" ref="B2:B17" si="0">CONCATENATE("return """,A2, """;")</f>
+        <f>CONCATENATE("return """,A2, """;")</f>
         <v>return "status";</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f t="shared" ref="C2:C17" si="1">A2</f>
+        <f>A2</f>
         <v>status</v>
       </c>
       <c r="D2" s="4" t="str">
-        <f t="shared" ref="D2:D17" si="2">A2</f>
+        <f>A2</f>
         <v>status</v>
       </c>
     </row>
@@ -1071,15 +1124,15 @@
         <v>18</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("return """,A3, """;")</f>
         <v>return "feature";</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="1"/>
+        <f>A3</f>
         <v>feature</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="2"/>
+        <f>A3</f>
         <v>feature</v>
       </c>
     </row>
@@ -1088,15 +1141,15 @@
         <v>19</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("return """,A4, """;")</f>
         <v>return "type";</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="1"/>
+        <f>A4</f>
         <v>type</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="2"/>
+        <f>A4</f>
         <v>type</v>
       </c>
     </row>
@@ -1105,15 +1158,15 @@
         <v>35</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("return """,A5, """;")</f>
         <v>return "statuscomment";</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="1"/>
+        <f>A5</f>
         <v>statuscomment</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="2"/>
+        <f>A5</f>
         <v>statuscomment</v>
       </c>
     </row>
@@ -1122,15 +1175,15 @@
         <v>16</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("return """,A6, """;")</f>
         <v>return "response";</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="1"/>
+        <f>A6</f>
         <v>response</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="2"/>
+        <f>A6</f>
         <v>response</v>
       </c>
     </row>
@@ -1139,15 +1192,15 @@
         <v>21</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("return """,A7, """;")</f>
         <v>return "requestType";</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="1"/>
+        <f>A7</f>
         <v>requestType</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="2"/>
+        <f>A7</f>
         <v>requestType</v>
       </c>
     </row>
@@ -1156,15 +1209,15 @@
         <v>22</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("return """,A8, """;")</f>
         <v>return "validationError";</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
+        <f>A8</f>
         <v>validationError</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="2"/>
+        <f>A8</f>
         <v>validationError</v>
       </c>
     </row>
@@ -1173,15 +1226,15 @@
         <v>28</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("return """,A9, """;")</f>
         <v>return "effectiveDate";</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
+        <f>A9</f>
         <v>effectiveDate</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="2"/>
+        <f>A9</f>
         <v>effectiveDate</v>
       </c>
     </row>
@@ -1190,15 +1243,15 @@
         <v>23</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("return """,A10, """;")</f>
         <v>return "expirationDate";</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="1"/>
+        <f>A10</f>
         <v>expirationDate</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="2"/>
+        <f>A10</f>
         <v>expirationDate</v>
       </c>
     </row>
@@ -1207,15 +1260,15 @@
         <v>11</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("return """,A11, """;")</f>
         <v>return "name";</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="1"/>
+        <f>A11</f>
         <v>name</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="2"/>
+        <f>A11</f>
         <v>name</v>
       </c>
     </row>
@@ -1224,15 +1277,15 @@
         <v>24</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("return """,A12, """;")</f>
         <v>return "loginUser";</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
+        <f>A12</f>
         <v>loginUser</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="2"/>
+        <f>A12</f>
         <v>loginUser</v>
       </c>
     </row>
@@ -1241,15 +1294,15 @@
         <v>25</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("return """,A13, """;")</f>
         <v>return "lastChangedBy";</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="1"/>
+        <f>A13</f>
         <v>lastChangedBy</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="2"/>
+        <f>A13</f>
         <v>lastChangedBy</v>
       </c>
     </row>
@@ -1258,15 +1311,15 @@
         <v>26</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("return """,A14, """;")</f>
         <v>return "createdBy";</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="1"/>
+        <f>A14</f>
         <v>createdBy</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="2"/>
+        <f>A14</f>
         <v>createdBy</v>
       </c>
     </row>
@@ -1275,15 +1328,15 @@
         <v>29</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("return """,A15, """;")</f>
         <v>return "definition";</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="1"/>
+        <f>A15</f>
         <v>definition</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="2"/>
+        <f>A15</f>
         <v>definition</v>
       </c>
     </row>
@@ -1292,15 +1345,15 @@
         <v>30</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("return """,A16, """;")</f>
         <v>return "documentation";</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="1"/>
+        <f>A16</f>
         <v>documentation</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="2"/>
+        <f>A16</f>
         <v>documentation</v>
       </c>
     </row>
@@ -1309,15 +1362,15 @@
         <v>32</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("return """,A17, """;")</f>
         <v>return "currentChangeRequestId";</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="1"/>
+        <f>A17</f>
         <v>currentChangeRequestId</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="2"/>
+        <f>A17</f>
         <v>currentChangeRequestId</v>
       </c>
     </row>
@@ -1326,15 +1379,15 @@
         <v>33</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" ref="B18" si="3">CONCATENATE("return """,A18, """;")</f>
+        <f>CONCATENATE("return """,A18, """;")</f>
         <v>return "historicalChangeRequestId";</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ref="C18" si="4">A18</f>
+        <f>A18</f>
         <v>historicalChangeRequestId</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" ref="D18" si="5">A18</f>
+        <f>A18</f>
         <v>historicalChangeRequestId</v>
       </c>
     </row>
@@ -1343,15 +1396,15 @@
         <v>36</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" ref="B19:B23" si="6">CONCATENATE("return """,A19, """;")</f>
+        <f>CONCATENATE("return """,A19, """;")</f>
         <v>return "baseline";</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ref="C19:C23" si="7">A19</f>
+        <f>A19</f>
         <v>baseline</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ref="D19:D23" si="8">A19</f>
+        <f>A19</f>
         <v>baseline</v>
       </c>
     </row>
@@ -1360,15 +1413,15 @@
         <v>40</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("return """,A20, """;")</f>
         <v>return "actionRuleBody";</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="7"/>
+        <f>A20</f>
         <v>actionRuleBody</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="8"/>
+        <f>A20</f>
         <v>actionRuleBody</v>
       </c>
     </row>
@@ -1377,15 +1430,15 @@
         <v>43</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("return """,A21, """;")</f>
         <v>return "operation";</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="7"/>
+        <f>A21</f>
         <v>operation</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="8"/>
+        <f>A21</f>
         <v>operation</v>
       </c>
     </row>
@@ -1394,15 +1447,15 @@
         <v>45</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("return """,A22, """;")</f>
         <v>return "rulePackage";</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="7"/>
+        <f>A22</f>
         <v>rulePackage</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="8"/>
+        <f>A22</f>
         <v>rulePackage</v>
       </c>
     </row>
@@ -1411,15 +1464,15 @@
         <v>55</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="6"/>
+        <f>CONCATENATE("return """,A23, """;")</f>
         <v>return "project";</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="7"/>
+        <f>A23</f>
         <v>project</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="8"/>
+        <f>A23</f>
         <v>project</v>
       </c>
     </row>
@@ -1445,15 +1498,15 @@
         <v>65</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" ref="B25:B32" si="9">CONCATENATE("return """,A25, """;")</f>
+        <f>CONCATENATE("return """,A25, """;")</f>
         <v>return "lastChangedByOnOriginal";</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" ref="C25:C32" si="10">A25</f>
+        <f>A25</f>
         <v>lastChangedByOnOriginal</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" ref="D25:D32" si="11">A25</f>
+        <f>A25</f>
         <v>lastChangedByOnOriginal</v>
       </c>
     </row>
@@ -1462,15 +1515,15 @@
         <v>66</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="9"/>
+        <f>CONCATENATE("return """,A26, """;")</f>
         <v>return "createdByOnOriginal";</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="10"/>
+        <f>A26</f>
         <v>createdByOnOriginal</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="11"/>
+        <f>A26</f>
         <v>createdByOnOriginal</v>
       </c>
     </row>
@@ -1479,15 +1532,15 @@
         <v>72</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="9"/>
+        <f>CONCATENATE("return """,A27, """;")</f>
         <v>return "oldStatus";</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="10"/>
+        <f>A27</f>
         <v>oldStatus</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="11"/>
+        <f>A27</f>
         <v>oldStatus</v>
       </c>
     </row>
@@ -1496,15 +1549,15 @@
         <v>73</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="9"/>
+        <f>CONCATENATE("return """,A28, """;")</f>
         <v>return "role";</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="10"/>
+        <f>A28</f>
         <v>role</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="11"/>
+        <f>A28</f>
         <v>role</v>
       </c>
     </row>
@@ -1513,15 +1566,15 @@
         <v>82</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="9"/>
+        <f>CONCATENATE("return """,A29, """;")</f>
         <v>return "text";</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="10"/>
+        <f>A29</f>
         <v>text</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="11"/>
+        <f>A29</f>
         <v>text</v>
       </c>
     </row>
@@ -1530,15 +1583,15 @@
         <v>83</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="9"/>
+        <f>CONCATENATE("return """,A30, """;")</f>
         <v>return "Release";</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="10"/>
+        <f>A30</f>
         <v>Release</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="11"/>
+        <f>A30</f>
         <v>Release</v>
       </c>
     </row>
@@ -1547,15 +1600,15 @@
         <v>87</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="9"/>
+        <f>CONCATENATE("return """,A31, """;")</f>
         <v>return "oldProperty";</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="10"/>
+        <f>A31</f>
         <v>oldProperty</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="11"/>
+        <f>A31</f>
         <v>oldProperty</v>
       </c>
     </row>
@@ -1564,16 +1617,169 @@
         <v>86</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="9"/>
+        <f>CONCATENATE("return """,A32, """;")</f>
         <v>return "newProperty";</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="10"/>
+        <f>A32</f>
         <v>newProperty</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="11"/>
+        <f>A32</f>
         <v>newProperty</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="str">
+        <f>CONCATENATE("return """,A33, """;")</f>
+        <v>return "buildPath";</v>
+      </c>
+      <c r="C33" t="str">
+        <f>A33</f>
+        <v>buildPath</v>
+      </c>
+      <c r="D33" t="str">
+        <f>A33</f>
+        <v>buildPath</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="str">
+        <f>CONCATENATE("return """,A34, """;")</f>
+        <v>return "projectName";</v>
+      </c>
+      <c r="C34" t="str">
+        <f>A34</f>
+        <v>projectName</v>
+      </c>
+      <c r="D34" t="str">
+        <f>A34</f>
+        <v>projectName</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="str">
+        <f>CONCATENATE("return """,A35, """;")</f>
+        <v>return "deploymentName";</v>
+      </c>
+      <c r="C35" t="str">
+        <f>A35</f>
+        <v>deploymentName</v>
+      </c>
+      <c r="D35" t="str">
+        <f>A35</f>
+        <v>deploymentName</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="str">
+        <f>CONCATENATE("return """,A36, """;")</f>
+        <v>return "sourceRuleProject";</v>
+      </c>
+      <c r="C36" t="str">
+        <f>A36</f>
+        <v>sourceRuleProject</v>
+      </c>
+      <c r="D36" t="str">
+        <f>A36</f>
+        <v>sourceRuleProject</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="str">
+        <f>CONCATENATE("return """,A37, """;")</f>
+        <v>return "sourceBranch";</v>
+      </c>
+      <c r="C37" t="str">
+        <f>A37</f>
+        <v>sourceBranch</v>
+      </c>
+      <c r="D37" t="str">
+        <f>A37</f>
+        <v>sourceBranch</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" t="str">
+        <f>CONCATENATE("return """,A38, """;")</f>
+        <v>return "parent";</v>
+      </c>
+      <c r="C38" t="str">
+        <f>A38</f>
+        <v>parent</v>
+      </c>
+      <c r="D38" t="str">
+        <f>A38</f>
+        <v>parent</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="str">
+        <f>CONCATENATE("return """,A39, """;")</f>
+        <v>return "versionComment";</v>
+      </c>
+      <c r="C39" t="str">
+        <f>A39</f>
+        <v>versionComment</v>
+      </c>
+      <c r="D39" t="str">
+        <f>A39</f>
+        <v>versionComment</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="str">
+        <f>CONCATENATE("return """,A40, """;")</f>
+        <v>return "newProperty";</v>
+      </c>
+      <c r="C40" t="str">
+        <f>A40</f>
+        <v>newProperty</v>
+      </c>
+      <c r="D40" t="str">
+        <f>A40</f>
+        <v>newProperty</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" t="str">
+        <f>CONCATENATE("return """,A41, """;")</f>
+        <v>return "updateType";</v>
+      </c>
+      <c r="C41" t="str">
+        <f>A41</f>
+        <v>updateType</v>
+      </c>
+      <c r="D41" t="str">
+        <f>A41</f>
+        <v>updateType</v>
       </c>
     </row>
   </sheetData>
@@ -1585,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,6 +1851,40 @@
       <c r="D3" t="str">
         <f>A3</f>
         <v>roles</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B10" si="0">CONCATENATE("return """,A4, """;")</f>
+        <v>return "authors";</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C10" si="1">A4</f>
+        <v>authors</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D10" si="2">A4</f>
+        <v>authors</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>return "approvers";</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5" si="3">A5</f>
+        <v>approvers</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5" si="4">A5</f>
+        <v>approvers</v>
       </c>
     </row>
   </sheetData>
@@ -1732,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,15 +2004,15 @@
         <v>37</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B4" si="0">CONCATENATE("return """,A2, """;")</f>
+        <f t="shared" ref="B2:B5" si="0">CONCATENATE("return """,A2, """;")</f>
         <v>return "active";</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C4" si="1">A2</f>
+        <f t="shared" ref="C2:C5" si="1">A2</f>
         <v>active</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D4" si="2">A2</f>
+        <f t="shared" ref="D2:D5" si="2">A2</f>
         <v>active</v>
       </c>
     </row>
@@ -1808,6 +2048,23 @@
       <c r="D4" t="str">
         <f t="shared" si="2"/>
         <v>permissionGranted</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>return "triggerBuild";</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>triggerBuild</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>triggerBuild</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +2078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>

--- a/GovernanceRules/rbrgBom/resources/Domains.xlsx
+++ b/GovernanceRules/rbrgBom/resources/Domains.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="671" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="671" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Integer" sheetId="21" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="101">
   <si>
     <t xml:space="preserve">Values </t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>updateType</t>
+  </si>
+  <si>
+    <t>decisionService</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
@@ -1107,15 +1110,15 @@
         <v>17</v>
       </c>
       <c r="B2" s="4" t="str">
-        <f>CONCATENATE("return """,A2, """;")</f>
+        <f t="shared" ref="B2:B41" si="0">CONCATENATE("return """,A2, """;")</f>
         <v>return "status";</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>A2</f>
+        <f t="shared" ref="C2:C41" si="1">A2</f>
         <v>status</v>
       </c>
       <c r="D2" s="4" t="str">
-        <f>A2</f>
+        <f t="shared" ref="D2:D41" si="2">A2</f>
         <v>status</v>
       </c>
     </row>
@@ -1124,15 +1127,15 @@
         <v>18</v>
       </c>
       <c r="B3" t="str">
-        <f>CONCATENATE("return """,A3, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "feature";</v>
       </c>
       <c r="C3" t="str">
-        <f>A3</f>
+        <f t="shared" si="1"/>
         <v>feature</v>
       </c>
       <c r="D3" t="str">
-        <f>A3</f>
+        <f t="shared" si="2"/>
         <v>feature</v>
       </c>
     </row>
@@ -1141,15 +1144,15 @@
         <v>19</v>
       </c>
       <c r="B4" t="str">
-        <f>CONCATENATE("return """,A4, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "type";</v>
       </c>
       <c r="C4" t="str">
-        <f>A4</f>
+        <f t="shared" si="1"/>
         <v>type</v>
       </c>
       <c r="D4" t="str">
-        <f>A4</f>
+        <f t="shared" si="2"/>
         <v>type</v>
       </c>
     </row>
@@ -1158,15 +1161,15 @@
         <v>35</v>
       </c>
       <c r="B5" t="str">
-        <f>CONCATENATE("return """,A5, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "statuscomment";</v>
       </c>
       <c r="C5" t="str">
-        <f>A5</f>
+        <f t="shared" si="1"/>
         <v>statuscomment</v>
       </c>
       <c r="D5" t="str">
-        <f>A5</f>
+        <f t="shared" si="2"/>
         <v>statuscomment</v>
       </c>
     </row>
@@ -1175,15 +1178,15 @@
         <v>16</v>
       </c>
       <c r="B6" t="str">
-        <f>CONCATENATE("return """,A6, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "response";</v>
       </c>
       <c r="C6" t="str">
-        <f>A6</f>
+        <f t="shared" si="1"/>
         <v>response</v>
       </c>
       <c r="D6" t="str">
-        <f>A6</f>
+        <f t="shared" si="2"/>
         <v>response</v>
       </c>
     </row>
@@ -1192,15 +1195,15 @@
         <v>21</v>
       </c>
       <c r="B7" t="str">
-        <f>CONCATENATE("return """,A7, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "requestType";</v>
       </c>
       <c r="C7" t="str">
-        <f>A7</f>
+        <f t="shared" si="1"/>
         <v>requestType</v>
       </c>
       <c r="D7" t="str">
-        <f>A7</f>
+        <f t="shared" si="2"/>
         <v>requestType</v>
       </c>
     </row>
@@ -1209,15 +1212,15 @@
         <v>22</v>
       </c>
       <c r="B8" t="str">
-        <f>CONCATENATE("return """,A8, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "validationError";</v>
       </c>
       <c r="C8" t="str">
-        <f>A8</f>
+        <f t="shared" si="1"/>
         <v>validationError</v>
       </c>
       <c r="D8" t="str">
-        <f>A8</f>
+        <f t="shared" si="2"/>
         <v>validationError</v>
       </c>
     </row>
@@ -1226,15 +1229,15 @@
         <v>28</v>
       </c>
       <c r="B9" t="str">
-        <f>CONCATENATE("return """,A9, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "effectiveDate";</v>
       </c>
       <c r="C9" t="str">
-        <f>A9</f>
+        <f t="shared" si="1"/>
         <v>effectiveDate</v>
       </c>
       <c r="D9" t="str">
-        <f>A9</f>
+        <f t="shared" si="2"/>
         <v>effectiveDate</v>
       </c>
     </row>
@@ -1243,15 +1246,15 @@
         <v>23</v>
       </c>
       <c r="B10" t="str">
-        <f>CONCATENATE("return """,A10, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "expirationDate";</v>
       </c>
       <c r="C10" t="str">
-        <f>A10</f>
+        <f t="shared" si="1"/>
         <v>expirationDate</v>
       </c>
       <c r="D10" t="str">
-        <f>A10</f>
+        <f t="shared" si="2"/>
         <v>expirationDate</v>
       </c>
     </row>
@@ -1260,15 +1263,15 @@
         <v>11</v>
       </c>
       <c r="B11" t="str">
-        <f>CONCATENATE("return """,A11, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "name";</v>
       </c>
       <c r="C11" t="str">
-        <f>A11</f>
+        <f t="shared" si="1"/>
         <v>name</v>
       </c>
       <c r="D11" t="str">
-        <f>A11</f>
+        <f t="shared" si="2"/>
         <v>name</v>
       </c>
     </row>
@@ -1277,15 +1280,15 @@
         <v>24</v>
       </c>
       <c r="B12" t="str">
-        <f>CONCATENATE("return """,A12, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "loginUser";</v>
       </c>
       <c r="C12" t="str">
-        <f>A12</f>
+        <f t="shared" si="1"/>
         <v>loginUser</v>
       </c>
       <c r="D12" t="str">
-        <f>A12</f>
+        <f t="shared" si="2"/>
         <v>loginUser</v>
       </c>
     </row>
@@ -1294,15 +1297,15 @@
         <v>25</v>
       </c>
       <c r="B13" t="str">
-        <f>CONCATENATE("return """,A13, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "lastChangedBy";</v>
       </c>
       <c r="C13" t="str">
-        <f>A13</f>
+        <f t="shared" si="1"/>
         <v>lastChangedBy</v>
       </c>
       <c r="D13" t="str">
-        <f>A13</f>
+        <f t="shared" si="2"/>
         <v>lastChangedBy</v>
       </c>
     </row>
@@ -1311,15 +1314,15 @@
         <v>26</v>
       </c>
       <c r="B14" t="str">
-        <f>CONCATENATE("return """,A14, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "createdBy";</v>
       </c>
       <c r="C14" t="str">
-        <f>A14</f>
+        <f t="shared" si="1"/>
         <v>createdBy</v>
       </c>
       <c r="D14" t="str">
-        <f>A14</f>
+        <f t="shared" si="2"/>
         <v>createdBy</v>
       </c>
     </row>
@@ -1328,15 +1331,15 @@
         <v>29</v>
       </c>
       <c r="B15" t="str">
-        <f>CONCATENATE("return """,A15, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "definition";</v>
       </c>
       <c r="C15" t="str">
-        <f>A15</f>
+        <f t="shared" si="1"/>
         <v>definition</v>
       </c>
       <c r="D15" t="str">
-        <f>A15</f>
+        <f t="shared" si="2"/>
         <v>definition</v>
       </c>
     </row>
@@ -1345,15 +1348,15 @@
         <v>30</v>
       </c>
       <c r="B16" t="str">
-        <f>CONCATENATE("return """,A16, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "documentation";</v>
       </c>
       <c r="C16" t="str">
-        <f>A16</f>
+        <f t="shared" si="1"/>
         <v>documentation</v>
       </c>
       <c r="D16" t="str">
-        <f>A16</f>
+        <f t="shared" si="2"/>
         <v>documentation</v>
       </c>
     </row>
@@ -1362,15 +1365,15 @@
         <v>32</v>
       </c>
       <c r="B17" t="str">
-        <f>CONCATENATE("return """,A17, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "currentChangeRequestId";</v>
       </c>
       <c r="C17" t="str">
-        <f>A17</f>
+        <f t="shared" si="1"/>
         <v>currentChangeRequestId</v>
       </c>
       <c r="D17" t="str">
-        <f>A17</f>
+        <f t="shared" si="2"/>
         <v>currentChangeRequestId</v>
       </c>
     </row>
@@ -1379,15 +1382,15 @@
         <v>33</v>
       </c>
       <c r="B18" t="str">
-        <f>CONCATENATE("return """,A18, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "historicalChangeRequestId";</v>
       </c>
       <c r="C18" t="str">
-        <f>A18</f>
+        <f t="shared" si="1"/>
         <v>historicalChangeRequestId</v>
       </c>
       <c r="D18" t="str">
-        <f>A18</f>
+        <f t="shared" si="2"/>
         <v>historicalChangeRequestId</v>
       </c>
     </row>
@@ -1396,15 +1399,15 @@
         <v>36</v>
       </c>
       <c r="B19" t="str">
-        <f>CONCATENATE("return """,A19, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "baseline";</v>
       </c>
       <c r="C19" t="str">
-        <f>A19</f>
+        <f t="shared" si="1"/>
         <v>baseline</v>
       </c>
       <c r="D19" t="str">
-        <f>A19</f>
+        <f t="shared" si="2"/>
         <v>baseline</v>
       </c>
     </row>
@@ -1413,15 +1416,15 @@
         <v>40</v>
       </c>
       <c r="B20" t="str">
-        <f>CONCATENATE("return """,A20, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "actionRuleBody";</v>
       </c>
       <c r="C20" t="str">
-        <f>A20</f>
+        <f t="shared" si="1"/>
         <v>actionRuleBody</v>
       </c>
       <c r="D20" t="str">
-        <f>A20</f>
+        <f t="shared" si="2"/>
         <v>actionRuleBody</v>
       </c>
     </row>
@@ -1430,15 +1433,15 @@
         <v>43</v>
       </c>
       <c r="B21" t="str">
-        <f>CONCATENATE("return """,A21, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "operation";</v>
       </c>
       <c r="C21" t="str">
-        <f>A21</f>
+        <f t="shared" si="1"/>
         <v>operation</v>
       </c>
       <c r="D21" t="str">
-        <f>A21</f>
+        <f t="shared" si="2"/>
         <v>operation</v>
       </c>
     </row>
@@ -1447,15 +1450,15 @@
         <v>45</v>
       </c>
       <c r="B22" t="str">
-        <f>CONCATENATE("return """,A22, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "rulePackage";</v>
       </c>
       <c r="C22" t="str">
-        <f>A22</f>
+        <f t="shared" si="1"/>
         <v>rulePackage</v>
       </c>
       <c r="D22" t="str">
-        <f>A22</f>
+        <f t="shared" si="2"/>
         <v>rulePackage</v>
       </c>
     </row>
@@ -1464,15 +1467,15 @@
         <v>55</v>
       </c>
       <c r="B23" t="str">
-        <f>CONCATENATE("return """,A23, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "project";</v>
       </c>
       <c r="C23" t="str">
-        <f>A23</f>
+        <f t="shared" si="1"/>
         <v>project</v>
       </c>
       <c r="D23" t="str">
-        <f>A23</f>
+        <f t="shared" si="2"/>
         <v>project</v>
       </c>
     </row>
@@ -1481,15 +1484,15 @@
         <v>64</v>
       </c>
       <c r="B24" t="str">
-        <f>CONCATENATE("return """,A24, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "action";</v>
       </c>
       <c r="C24" t="str">
-        <f>A24</f>
+        <f t="shared" si="1"/>
         <v>action</v>
       </c>
       <c r="D24" t="str">
-        <f>A24</f>
+        <f t="shared" si="2"/>
         <v>action</v>
       </c>
     </row>
@@ -1498,15 +1501,15 @@
         <v>65</v>
       </c>
       <c r="B25" t="str">
-        <f>CONCATENATE("return """,A25, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "lastChangedByOnOriginal";</v>
       </c>
       <c r="C25" t="str">
-        <f>A25</f>
+        <f t="shared" si="1"/>
         <v>lastChangedByOnOriginal</v>
       </c>
       <c r="D25" t="str">
-        <f>A25</f>
+        <f t="shared" si="2"/>
         <v>lastChangedByOnOriginal</v>
       </c>
     </row>
@@ -1515,15 +1518,15 @@
         <v>66</v>
       </c>
       <c r="B26" t="str">
-        <f>CONCATENATE("return """,A26, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "createdByOnOriginal";</v>
       </c>
       <c r="C26" t="str">
-        <f>A26</f>
+        <f t="shared" si="1"/>
         <v>createdByOnOriginal</v>
       </c>
       <c r="D26" t="str">
-        <f>A26</f>
+        <f t="shared" si="2"/>
         <v>createdByOnOriginal</v>
       </c>
     </row>
@@ -1532,15 +1535,15 @@
         <v>72</v>
       </c>
       <c r="B27" t="str">
-        <f>CONCATENATE("return """,A27, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "oldStatus";</v>
       </c>
       <c r="C27" t="str">
-        <f>A27</f>
+        <f t="shared" si="1"/>
         <v>oldStatus</v>
       </c>
       <c r="D27" t="str">
-        <f>A27</f>
+        <f t="shared" si="2"/>
         <v>oldStatus</v>
       </c>
     </row>
@@ -1549,15 +1552,15 @@
         <v>73</v>
       </c>
       <c r="B28" t="str">
-        <f>CONCATENATE("return """,A28, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "role";</v>
       </c>
       <c r="C28" t="str">
-        <f>A28</f>
+        <f t="shared" si="1"/>
         <v>role</v>
       </c>
       <c r="D28" t="str">
-        <f>A28</f>
+        <f t="shared" si="2"/>
         <v>role</v>
       </c>
     </row>
@@ -1566,15 +1569,15 @@
         <v>82</v>
       </c>
       <c r="B29" t="str">
-        <f>CONCATENATE("return """,A29, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "text";</v>
       </c>
       <c r="C29" t="str">
-        <f>A29</f>
+        <f t="shared" si="1"/>
         <v>text</v>
       </c>
       <c r="D29" t="str">
-        <f>A29</f>
+        <f t="shared" si="2"/>
         <v>text</v>
       </c>
     </row>
@@ -1583,15 +1586,15 @@
         <v>83</v>
       </c>
       <c r="B30" t="str">
-        <f>CONCATENATE("return """,A30, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "Release";</v>
       </c>
       <c r="C30" t="str">
-        <f>A30</f>
+        <f t="shared" si="1"/>
         <v>Release</v>
       </c>
       <c r="D30" t="str">
-        <f>A30</f>
+        <f t="shared" si="2"/>
         <v>Release</v>
       </c>
     </row>
@@ -1600,15 +1603,15 @@
         <v>87</v>
       </c>
       <c r="B31" t="str">
-        <f>CONCATENATE("return """,A31, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "oldProperty";</v>
       </c>
       <c r="C31" t="str">
-        <f>A31</f>
+        <f t="shared" si="1"/>
         <v>oldProperty</v>
       </c>
       <c r="D31" t="str">
-        <f>A31</f>
+        <f t="shared" si="2"/>
         <v>oldProperty</v>
       </c>
     </row>
@@ -1617,15 +1620,15 @@
         <v>86</v>
       </c>
       <c r="B32" t="str">
-        <f>CONCATENATE("return """,A32, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "newProperty";</v>
       </c>
       <c r="C32" t="str">
-        <f>A32</f>
+        <f t="shared" si="1"/>
         <v>newProperty</v>
       </c>
       <c r="D32" t="str">
-        <f>A32</f>
+        <f t="shared" si="2"/>
         <v>newProperty</v>
       </c>
     </row>
@@ -1634,15 +1637,15 @@
         <v>89</v>
       </c>
       <c r="B33" t="str">
-        <f>CONCATENATE("return """,A33, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "buildPath";</v>
       </c>
       <c r="C33" t="str">
-        <f>A33</f>
+        <f t="shared" si="1"/>
         <v>buildPath</v>
       </c>
       <c r="D33" t="str">
-        <f>A33</f>
+        <f t="shared" si="2"/>
         <v>buildPath</v>
       </c>
     </row>
@@ -1651,15 +1654,15 @@
         <v>90</v>
       </c>
       <c r="B34" t="str">
-        <f>CONCATENATE("return """,A34, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "projectName";</v>
       </c>
       <c r="C34" t="str">
-        <f>A34</f>
+        <f t="shared" si="1"/>
         <v>projectName</v>
       </c>
       <c r="D34" t="str">
-        <f>A34</f>
+        <f t="shared" si="2"/>
         <v>projectName</v>
       </c>
     </row>
@@ -1668,15 +1671,15 @@
         <v>91</v>
       </c>
       <c r="B35" t="str">
-        <f>CONCATENATE("return """,A35, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "deploymentName";</v>
       </c>
       <c r="C35" t="str">
-        <f>A35</f>
+        <f t="shared" si="1"/>
         <v>deploymentName</v>
       </c>
       <c r="D35" t="str">
-        <f>A35</f>
+        <f t="shared" si="2"/>
         <v>deploymentName</v>
       </c>
     </row>
@@ -1685,15 +1688,15 @@
         <v>92</v>
       </c>
       <c r="B36" t="str">
-        <f>CONCATENATE("return """,A36, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "sourceRuleProject";</v>
       </c>
       <c r="C36" t="str">
-        <f>A36</f>
+        <f t="shared" si="1"/>
         <v>sourceRuleProject</v>
       </c>
       <c r="D36" t="str">
-        <f>A36</f>
+        <f t="shared" si="2"/>
         <v>sourceRuleProject</v>
       </c>
     </row>
@@ -1702,15 +1705,15 @@
         <v>93</v>
       </c>
       <c r="B37" t="str">
-        <f>CONCATENATE("return """,A37, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "sourceBranch";</v>
       </c>
       <c r="C37" t="str">
-        <f>A37</f>
+        <f t="shared" si="1"/>
         <v>sourceBranch</v>
       </c>
       <c r="D37" t="str">
-        <f>A37</f>
+        <f t="shared" si="2"/>
         <v>sourceBranch</v>
       </c>
     </row>
@@ -1719,15 +1722,15 @@
         <v>95</v>
       </c>
       <c r="B38" t="str">
-        <f>CONCATENATE("return """,A38, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "parent";</v>
       </c>
       <c r="C38" t="str">
-        <f>A38</f>
+        <f t="shared" si="1"/>
         <v>parent</v>
       </c>
       <c r="D38" t="str">
-        <f>A38</f>
+        <f t="shared" si="2"/>
         <v>parent</v>
       </c>
     </row>
@@ -1736,15 +1739,15 @@
         <v>96</v>
       </c>
       <c r="B39" t="str">
-        <f>CONCATENATE("return """,A39, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "versionComment";</v>
       </c>
       <c r="C39" t="str">
-        <f>A39</f>
+        <f t="shared" si="1"/>
         <v>versionComment</v>
       </c>
       <c r="D39" t="str">
-        <f>A39</f>
+        <f t="shared" si="2"/>
         <v>versionComment</v>
       </c>
     </row>
@@ -1753,15 +1756,15 @@
         <v>86</v>
       </c>
       <c r="B40" t="str">
-        <f>CONCATENATE("return """,A40, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "newProperty";</v>
       </c>
       <c r="C40" t="str">
-        <f>A40</f>
+        <f t="shared" si="1"/>
         <v>newProperty</v>
       </c>
       <c r="D40" t="str">
-        <f>A40</f>
+        <f t="shared" si="2"/>
         <v>newProperty</v>
       </c>
     </row>
@@ -1770,15 +1773,15 @@
         <v>99</v>
       </c>
       <c r="B41" t="str">
-        <f>CONCATENATE("return """,A41, """;")</f>
+        <f t="shared" si="0"/>
         <v>return "updateType";</v>
       </c>
       <c r="C41" t="str">
-        <f>A41</f>
+        <f t="shared" si="1"/>
         <v>updateType</v>
       </c>
       <c r="D41" t="str">
-        <f>A41</f>
+        <f t="shared" si="2"/>
         <v>updateType</v>
       </c>
     </row>
@@ -1858,15 +1861,15 @@
         <v>97</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B10" si="0">CONCATENATE("return """,A4, """;")</f>
+        <f t="shared" ref="B4:B5" si="0">CONCATENATE("return """,A4, """;")</f>
         <v>return "authors";</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C10" si="1">A4</f>
+        <f t="shared" ref="C4" si="1">A4</f>
         <v>authors</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D10" si="2">A4</f>
+        <f t="shared" ref="D4" si="2">A4</f>
         <v>authors</v>
       </c>
     </row>
@@ -1972,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,15 +2007,15 @@
         <v>37</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B5" si="0">CONCATENATE("return """,A2, """;")</f>
+        <f t="shared" ref="B2:B6" si="0">CONCATENATE("return """,A2, """;")</f>
         <v>return "active";</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C5" si="1">A2</f>
+        <f t="shared" ref="C2:C6" si="1">A2</f>
         <v>active</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D5" si="2">A2</f>
+        <f t="shared" ref="D2:D6" si="2">A2</f>
         <v>active</v>
       </c>
     </row>
@@ -2065,6 +2068,23 @@
       <c r="D5" t="str">
         <f t="shared" si="2"/>
         <v>triggerBuild</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>return "decisionService";</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>decisionService</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>decisionService</v>
       </c>
     </row>
   </sheetData>
